--- a/00.기획서/1차 프로토 기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/1차 프로토 기획서/221016_스테이지 기획서_V110.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\1차 프로토 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -5439,7 +5439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="406">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5972,14 +5972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7034,6 +7026,38 @@
   </si>
   <si>
     <t>▶ 미니맵 경로 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 평생 모쏠이었던 내 인생 첫 데이트날…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(상대는 일본에서 교환학생으로 온 '하나'….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그런데 왜 나같은 녀석을 좋아해주는걸까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한국문화가 너무 좋아서 왔다고 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(★연애는 처음인데★ 내가 잘 해낼 수 있을까?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8045,41 +8069,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8090,61 +8099,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8168,16 +8144,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8189,28 +8171,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8225,16 +8249,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8246,16 +8264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8268,6 +8283,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8994,7 +9018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9003,50 +9027,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9142,12 +9166,12 @@
     </row>
     <row r="14" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9265,136 +9289,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75" t="s">
+      <c r="F51" s="61"/>
+      <c r="G51" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="62" t="s">
+      <c r="F52" s="60"/>
+      <c r="G52" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="101" t="s">
+      <c r="E53" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="101"/>
-      <c r="G53" s="62" t="s">
+      <c r="F53" s="60"/>
+      <c r="G53" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="62" t="s">
+      <c r="F54" s="60"/>
+      <c r="G54" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="101"/>
-      <c r="G55" s="62" t="s">
+      <c r="F55" s="60"/>
+      <c r="G55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="101"/>
-      <c r="G56" s="62" t="s">
+      <c r="F56" s="60"/>
+      <c r="G56" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9405,170 +9429,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="88"/>
+      <c r="G59" s="53"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="97" t="s">
+      <c r="I59" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="88"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="53"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="82" t="s">
+      <c r="E60" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="61"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="61"/>
+      <c r="I60" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="85"/>
-      <c r="F61" s="102" t="s">
+      <c r="E61" s="69"/>
+      <c r="F61" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="81"/>
+      <c r="G61" s="65"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="79" t="s">
+      <c r="I61" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="81"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="65"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="82" t="s">
+      <c r="E62" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="77" t="s">
+      <c r="F62" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="74" t="s">
+      <c r="G62" s="59"/>
+      <c r="H62" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="78"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="59"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="84"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="56" t="s">
+      <c r="E63" s="68"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="58"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="50"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="84"/>
-      <c r="F64" s="76" t="s">
+      <c r="E64" s="68"/>
+      <c r="F64" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="50" t="s">
+      <c r="G64" s="50"/>
+      <c r="H64" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="56" t="s">
+      <c r="I64" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="58"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="50"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="84"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="56" t="s">
+      <c r="E65" s="68"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="50"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="84"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9576,352 +9600,352 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="56" t="s">
+      <c r="I66" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="58"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="50"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="84"/>
-      <c r="F67" s="76" t="s">
+      <c r="E67" s="68"/>
+      <c r="F67" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="58"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="I67" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="50"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="84"/>
-      <c r="F68" s="76" t="s">
+      <c r="E68" s="68"/>
+      <c r="F68" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="58"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="56" t="s">
+      <c r="I68" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
-      <c r="S68" s="57"/>
-      <c r="T68" s="58"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="50"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="84"/>
-      <c r="F69" s="76" t="s">
+      <c r="E69" s="68"/>
+      <c r="F69" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="50" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="56" t="s">
+      <c r="I69" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="50"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="84"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="56" t="s">
+      <c r="E70" s="68"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="58"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="50"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="84"/>
-      <c r="F71" s="76" t="s">
+      <c r="E71" s="68"/>
+      <c r="F71" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="50" t="s">
+      <c r="G71" s="50"/>
+      <c r="H71" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="56" t="s">
+      <c r="I71" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="57"/>
-      <c r="S71" s="57"/>
-      <c r="T71" s="58"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="50"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="84"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="49" t="s">
+      <c r="E72" s="68"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="48"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="92"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="84"/>
-      <c r="F73" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="G73" s="58"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="50"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="57"/>
-      <c r="S73" s="57"/>
-      <c r="T73" s="58"/>
+      <c r="I73" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="50"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="84"/>
-      <c r="F74" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="G74" s="48"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="G74" s="92"/>
       <c r="H74" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I74" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="I74" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="48"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="92"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="84"/>
-      <c r="F75" s="76" t="s">
+      <c r="E75" s="68"/>
+      <c r="F75" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="50" t="s">
+      <c r="G75" s="50"/>
+      <c r="H75" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="57"/>
-      <c r="S75" s="57"/>
-      <c r="T75" s="58"/>
+      <c r="I75" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="50"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="84"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="56" t="s">
+      <c r="E76" s="68"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="57"/>
-      <c r="S76" s="57"/>
-      <c r="T76" s="58"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="50"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="84"/>
-      <c r="F77" s="76" t="s">
+      <c r="E77" s="68"/>
+      <c r="F77" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="58"/>
-      <c r="H77" s="50" t="s">
+      <c r="G77" s="50"/>
+      <c r="H77" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="57"/>
-      <c r="S77" s="57"/>
-      <c r="T77" s="58"/>
+      <c r="I77" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="50"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="84"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="58"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="50"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="84"/>
-      <c r="F79" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="G79" s="58"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" s="50"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="58"/>
+      <c r="I79" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="50"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="84"/>
-      <c r="F80" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="G80" s="58"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" s="50"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
-      <c r="T80" s="48"/>
+      <c r="I80" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="92"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="86"/>
-      <c r="F81" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="G81" s="48"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" s="92"/>
       <c r="H81" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
@@ -9936,170 +9960,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="85"/>
-      <c r="F82" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="G82" s="93"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="79"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="73"/>
+      <c r="I82" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
+      <c r="O82" s="93"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="93"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="94"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="82" t="s">
+      <c r="E83" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="94" t="s">
+      <c r="F83" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="61"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="59" t="s">
+      <c r="I83" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="61"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="56"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="83"/>
-      <c r="F84" s="52" t="s">
+      <c r="E84" s="67"/>
+      <c r="F84" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="100"/>
+      <c r="H84" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="I84" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="G84" s="53"/>
-      <c r="H84" s="50" t="s">
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="92"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="67"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="48"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="83"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="48"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="92"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="84"/>
-      <c r="F86" s="89" t="s">
+      <c r="E86" s="68"/>
+      <c r="F86" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="65"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="63" t="s">
+      <c r="I86" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
-      <c r="R86" s="64"/>
-      <c r="S86" s="64"/>
-      <c r="T86" s="65"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="86"/>
+      <c r="L86" s="86"/>
+      <c r="M86" s="86"/>
+      <c r="N86" s="86"/>
+      <c r="O86" s="86"/>
+      <c r="P86" s="86"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="86"/>
+      <c r="S86" s="86"/>
+      <c r="T86" s="73"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="84"/>
-      <c r="F87" s="90" t="s">
+      <c r="E87" s="68"/>
+      <c r="F87" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="68"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="66" t="s">
+      <c r="I87" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="68"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
+      <c r="N87" s="88"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="88"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="75"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="85"/>
-      <c r="F88" s="91" t="s">
+      <c r="E88" s="69"/>
+      <c r="F88" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="71"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="69" t="s">
+      <c r="I88" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="70"/>
-      <c r="O88" s="70"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="70"/>
-      <c r="T88" s="71"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="90"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="90"/>
+      <c r="P88" s="90"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="90"/>
+      <c r="S88" s="90"/>
+      <c r="T88" s="77"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10108,11 +10132,69 @@
     </row>
     <row r="90" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F90" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="G56:T56"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="I87:T87"/>
+    <mergeCell ref="I88:T88"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F69:G70"/>
     <mergeCell ref="I59:T59"/>
@@ -10129,64 +10211,6 @@
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="G56:T56"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="I87:T87"/>
-    <mergeCell ref="I88:T88"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10207,46 +10231,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10327,7 +10351,7 @@
     </row>
     <row r="38" spans="4:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -10387,7 +10411,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>106</v>
@@ -10484,50 +10508,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110" t="s">
-        <v>361</v>
-      </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="116" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="110" t="s">
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="114" t="s">
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10561,7 +10585,7 @@
         <v>86</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>85</v>
@@ -10573,7 +10597,7 @@
         <v>86</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>85</v>
@@ -10582,10 +10606,10 @@
         <v>85</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>86</v>
@@ -10597,13 +10621,13 @@
         <v>85</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y4" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y4" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="118"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10646,16 +10670,16 @@
         <v>78</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>77</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>76</v>
@@ -10667,7 +10691,7 @@
         <v>74</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>73</v>
@@ -10676,10 +10700,10 @@
         <v>72</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>71</v>
@@ -10688,18 +10712,18 @@
         <v>70</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X5" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y5" s="111" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="113"/>
+        <v>194</v>
+      </c>
+      <c r="Y5" s="109" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="111"/>
       <c r="AB5" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>0</v>
@@ -10708,7 +10732,7 @@
         <v>75</v>
       </c>
       <c r="AE5" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF5" s="21" t="s">
         <v>73</v>
@@ -10722,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="43">
@@ -10732,14 +10756,14 @@
         <v>127.122929</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39">
         <v>0</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
@@ -10788,7 +10812,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J7" s="17">
         <v>2</v>
@@ -10807,11 +10831,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="111">
+      <c r="Y7" s="109">
         <v>1</v>
       </c>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="113"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="111"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10836,7 +10860,7 @@
         <v>127.123762</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="21">
@@ -10859,11 +10883,11 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="113"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="111"/>
       <c r="AB8" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
@@ -10872,7 +10896,7 @@
         <v>4</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF8" s="1">
         <v>2</v>
@@ -10898,10 +10922,10 @@
         <v>127.12388799999999</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I9" s="21">
         <v>7</v>
@@ -10910,10 +10934,10 @@
         <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -10922,10 +10946,10 @@
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
@@ -10934,10 +10958,10 @@
         <v>9</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U9" s="1">
         <v>2</v>
@@ -10947,9 +10971,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="113"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -10974,10 +10998,10 @@
         <v>127.12374699999999</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I10" s="39">
         <v>12</v>
@@ -11003,9 +11027,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="113"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="111"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -11015,11 +11039,16 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -11027,11 +11056,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11042,10 +11066,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D146"/>
+  <dimension ref="B2:D149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11084,7 +11108,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>133</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -11092,76 +11116,76 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>134</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>140</v>
+      <c r="C9" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>141</v>
+      <c r="C10" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>142</v>
+      <c r="C11" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>143</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -11169,10 +11193,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -11180,10 +11204,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -11191,10 +11215,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -11202,10 +11226,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -11213,10 +11237,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -11224,10 +11248,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -11235,10 +11259,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -11246,10 +11270,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -11257,10 +11281,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -11268,10 +11292,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -11279,10 +11303,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -11290,10 +11314,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -11301,10 +11325,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -11312,10 +11336,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -11323,10 +11347,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -11334,76 +11358,76 @@
         <v>1</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>307</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -11411,10 +11435,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -11422,10 +11446,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>310</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -11433,43 +11457,43 @@
         <v>3</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -11477,10 +11501,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>171</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -11488,10 +11512,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -11499,10 +11523,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -11510,10 +11534,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -11521,10 +11545,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>314</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -11532,10 +11556,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -11543,10 +11567,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -11554,10 +11578,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -11565,43 +11589,43 @@
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -11609,10 +11633,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -11620,10 +11644,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -11631,10 +11655,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>320</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -11642,10 +11666,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -11653,10 +11677,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -11664,65 +11688,65 @@
         <v>5</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -11730,10 +11754,10 @@
         <v>7</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -11741,10 +11765,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -11752,10 +11776,10 @@
         <v>7</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -11763,43 +11787,43 @@
         <v>7</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>323</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>385</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -11807,10 +11831,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -11818,10 +11842,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
@@ -11829,10 +11853,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>383</v>
+        <v>216</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -11840,10 +11864,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -11851,10 +11875,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -11862,10 +11886,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>231</v>
+        <v>381</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -11873,10 +11897,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>391</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
@@ -11884,10 +11908,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -11895,10 +11919,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -11906,10 +11930,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -11917,10 +11941,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -11928,10 +11952,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -11939,43 +11963,43 @@
         <v>8</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>327</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -11983,10 +12007,10 @@
         <v>9</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -11994,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -12005,10 +12029,10 @@
         <v>9</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -12016,10 +12040,10 @@
         <v>9</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
@@ -12027,43 +12051,43 @@
         <v>9</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -12071,10 +12095,10 @@
         <v>10</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
@@ -12082,10 +12106,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -12093,10 +12117,10 @@
         <v>10</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -12104,10 +12128,10 @@
         <v>10</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -12115,10 +12139,10 @@
         <v>10</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -12126,10 +12150,10 @@
         <v>10</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -12137,10 +12161,10 @@
         <v>10</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
@@ -12148,10 +12172,10 @@
         <v>10</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
@@ -12159,65 +12183,65 @@
         <v>10</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>383</v>
+        <v>215</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -12225,10 +12249,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -12236,10 +12260,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
@@ -12247,10 +12271,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
@@ -12258,10 +12282,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
@@ -12269,10 +12293,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -12280,10 +12304,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
@@ -12291,10 +12315,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -12302,10 +12326,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
@@ -12313,10 +12337,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
@@ -12324,10 +12348,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
@@ -12335,10 +12359,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>344</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
@@ -12346,10 +12370,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -12357,10 +12381,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>345</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -12368,10 +12392,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
@@ -12379,10 +12403,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
@@ -12390,43 +12414,43 @@
         <v>12</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
@@ -12434,10 +12458,10 @@
         <v>13</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
@@ -12445,43 +12469,43 @@
         <v>13</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -12489,10 +12513,10 @@
         <v>14</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
@@ -12500,10 +12524,10 @@
         <v>14</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
@@ -12511,10 +12535,10 @@
         <v>14</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
@@ -12522,43 +12546,43 @@
         <v>14</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
@@ -12566,10 +12590,10 @@
         <v>15</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
@@ -12577,10 +12601,10 @@
         <v>15</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
@@ -12588,10 +12612,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
@@ -12599,10 +12623,10 @@
         <v>15</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
@@ -12610,10 +12634,10 @@
         <v>15</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -12621,10 +12645,10 @@
         <v>15</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
@@ -12632,10 +12656,10 @@
         <v>15</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
@@ -12643,10 +12667,43 @@
         <v>15</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="28">
+        <v>15</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="28">
+        <v>15</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="28">
+        <v>15</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/1차 프로토 기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/1차 프로토 기획서/221016_스테이지 기획서_V110.xlsx
@@ -7037,10 +7037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(오늘은 평생 모쏠이었던 내 인생 첫 데이트날…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(상대는 일본에서 교환학생으로 온 '하나'….)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7053,11 +7049,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(★연애는 처음인데★ 내가 잘 해낼 수 있을까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(한국문화가 너무 좋아서 왔다고 한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(★연애는 처음인데★ 내가 잘 해낼 수 있을까?)</t>
+    <t>(오늘은 평생 모쏠이었던 내 인생 첫 데이트날.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8069,26 +8069,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8099,28 +8114,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8144,22 +8192,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8171,70 +8213,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8249,10 +8249,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8264,13 +8270,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8283,15 +8292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9027,50 +9027,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9289,136 +9289,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61" t="s">
+      <c r="F51" s="75"/>
+      <c r="G51" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="101"/>
+      <c r="G52" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="84" t="s">
+      <c r="F53" s="101"/>
+      <c r="G53" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="84" t="s">
+      <c r="F54" s="101"/>
+      <c r="G54" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="84" t="s">
+      <c r="F55" s="101"/>
+      <c r="G55" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="84" t="s">
+      <c r="F56" s="101"/>
+      <c r="G56" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9429,170 +9429,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="53"/>
+      <c r="G59" s="88"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="53"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="88"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="80" t="s">
+      <c r="F60" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="61"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="69"/>
-      <c r="F61" s="64" t="s">
+      <c r="E61" s="85"/>
+      <c r="F61" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="65"/>
+      <c r="G61" s="81"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="82" t="s">
+      <c r="I61" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="65"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="81"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="H62" s="95" t="s">
+      <c r="G62" s="78"/>
+      <c r="H62" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="59"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="78"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="68"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="62" t="s">
+      <c r="E63" s="84"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="50"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="68"/>
-      <c r="F64" s="49" t="s">
+      <c r="E64" s="84"/>
+      <c r="F64" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="50"/>
-      <c r="H64" s="97" t="s">
+      <c r="G64" s="58"/>
+      <c r="H64" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="I64" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="50"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="58"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="68"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="62" t="s">
+      <c r="E65" s="84"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="50"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="58"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="68"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9600,347 +9600,347 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I66" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="50"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="68"/>
-      <c r="F67" s="49" t="s">
+      <c r="E67" s="84"/>
+      <c r="F67" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="50"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="62" t="s">
+      <c r="I67" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
-      <c r="T67" s="50"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="68"/>
-      <c r="F68" s="49" t="s">
+      <c r="E68" s="84"/>
+      <c r="F68" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="50"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="62" t="s">
+      <c r="I68" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="50"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="68"/>
-      <c r="F69" s="49" t="s">
+      <c r="E69" s="84"/>
+      <c r="F69" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="97" t="s">
+      <c r="G69" s="58"/>
+      <c r="H69" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="62" t="s">
+      <c r="I69" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="50"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="58"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="68"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="62" t="s">
+      <c r="E70" s="84"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="50"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="58"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="68"/>
-      <c r="F71" s="49" t="s">
+      <c r="E71" s="84"/>
+      <c r="F71" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="50"/>
-      <c r="H71" s="97" t="s">
+      <c r="G71" s="58"/>
+      <c r="H71" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="62" t="s">
+      <c r="I71" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="50"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="58"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="68"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="91" t="s">
+      <c r="E72" s="84"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="92"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="48"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="68"/>
-      <c r="F73" s="49" t="s">
+      <c r="E73" s="84"/>
+      <c r="F73" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="50"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="62" t="s">
+      <c r="I73" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="50"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="58"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="68"/>
-      <c r="F74" s="98" t="s">
+      <c r="E74" s="84"/>
+      <c r="F74" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="G74" s="92"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="I74" s="98" t="s">
+      <c r="I74" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="92"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="48"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="68"/>
-      <c r="F75" s="49" t="s">
+      <c r="E75" s="84"/>
+      <c r="F75" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="97" t="s">
+      <c r="G75" s="58"/>
+      <c r="H75" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="62" t="s">
+      <c r="I75" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="50"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="58"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="68"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="62" t="s">
+      <c r="E76" s="84"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="50"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="58"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="68"/>
-      <c r="F77" s="49" t="s">
+      <c r="E77" s="84"/>
+      <c r="F77" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="97" t="s">
+      <c r="G77" s="58"/>
+      <c r="H77" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="62" t="s">
+      <c r="I77" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="63"/>
-      <c r="T77" s="50"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="58"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="68"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="62" t="s">
+      <c r="E78" s="84"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="50"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="58"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="68"/>
-      <c r="F79" s="49" t="s">
+      <c r="E79" s="84"/>
+      <c r="F79" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="62" t="s">
+      <c r="I79" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="50"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="58"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="68"/>
-      <c r="F80" s="49" t="s">
+      <c r="E80" s="84"/>
+      <c r="F80" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="91" t="s">
+      <c r="I80" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="92"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="48"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="70"/>
-      <c r="F81" s="98" t="s">
+      <c r="E81" s="86"/>
+      <c r="F81" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="G81" s="92"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="31" t="s">
         <v>201</v>
       </c>
@@ -9960,170 +9960,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="69"/>
-      <c r="F82" s="78" t="s">
+      <c r="E82" s="85"/>
+      <c r="F82" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="G82" s="79"/>
+      <c r="G82" s="93"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="93" t="s">
+      <c r="I82" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="93"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="93"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="94"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="73"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="66" t="s">
+      <c r="E83" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="54" t="s">
+      <c r="I83" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="56"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="67"/>
-      <c r="F84" s="99" t="s">
+      <c r="E84" s="83"/>
+      <c r="F84" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="100"/>
-      <c r="H84" s="97" t="s">
+      <c r="G84" s="53"/>
+      <c r="H84" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="I84" s="98" t="s">
+      <c r="I84" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="92"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="48"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="67"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="98" t="s">
+      <c r="E85" s="83"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="92"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="48"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="68"/>
-      <c r="F86" s="72" t="s">
+      <c r="E86" s="84"/>
+      <c r="F86" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="73"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="85" t="s">
+      <c r="I86" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="86"/>
-      <c r="K86" s="86"/>
-      <c r="L86" s="86"/>
-      <c r="M86" s="86"/>
-      <c r="N86" s="86"/>
-      <c r="O86" s="86"/>
-      <c r="P86" s="86"/>
-      <c r="Q86" s="86"/>
-      <c r="R86" s="86"/>
-      <c r="S86" s="86"/>
-      <c r="T86" s="73"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="64"/>
+      <c r="T86" s="65"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="68"/>
-      <c r="F87" s="74" t="s">
+      <c r="E87" s="84"/>
+      <c r="F87" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="75"/>
+      <c r="G87" s="68"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="87" t="s">
+      <c r="I87" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="88"/>
-      <c r="Q87" s="88"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="88"/>
-      <c r="T87" s="75"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="68"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="69"/>
-      <c r="F88" s="76" t="s">
+      <c r="E88" s="85"/>
+      <c r="F88" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="77"/>
+      <c r="G88" s="71"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="89" t="s">
+      <c r="I88" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="77"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="71"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10137,21 +10137,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
     <mergeCell ref="G56:T56"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="I87:T87"/>
@@ -10168,49 +10196,21 @@
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="I66:T66"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10231,46 +10231,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10508,50 +10508,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>359</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="112" t="s">
+      <c r="J3" s="109"/>
+      <c r="K3" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="115" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="121" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="107" t="s">
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10623,11 +10623,11 @@
       <c r="X4" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="Y4" s="116" t="s">
+      <c r="Y4" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10717,11 +10717,11 @@
       <c r="X5" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="Y5" s="109" t="s">
+      <c r="Y5" s="111" t="s">
         <v>357</v>
       </c>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113"/>
       <c r="AB5" s="22" t="s">
         <v>205</v>
       </c>
@@ -10831,11 +10831,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="109">
+      <c r="Y7" s="111">
         <v>1</v>
       </c>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10883,9 +10883,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
       <c r="AB8" s="9" t="s">
         <v>191</v>
       </c>
@@ -10971,9 +10971,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="113"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -11027,9 +11027,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -11044,11 +11044,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -11056,6 +11051,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11068,8 +11068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11108,7 +11108,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -11119,7 +11119,7 @@
         <v>399</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -11138,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>402</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -11152,7 +11152,7 @@
         <v>132</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
